--- a/emotions/df_results.xlsx
+++ b/emotions/df_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588C7B2-3E27-4484-ADC4-B0C697946A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960614CB-771E-4A22-A07E-96DAF63B5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -109,6 +109,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -248,11 +249,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -269,24 +267,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -400,13 +388,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -419,6 +400,25 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76881C98-FCBB-4CD0-A0B6-133E55802637}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76881C98-FCBB-4CD0-A0B6-133E55802637}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -1444,15 +1444,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3919BAAC-52A1-457B-ACCD-0CFE0249CF82}" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3919BAAC-52A1-457B-ACCD-0CFE0249CF82}" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F36" xr:uid="{3919BAAC-52A1-457B-ACCD-0CFE0249CF82}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94A24E00-CF60-469E-88ED-A1F1C670346B}" name="Matrix" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{393928ED-8C02-4C44-9AAA-53C49CC23C50}" name="Emotion" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{17A14BD4-5D29-4918-90B8-DEBC306AEA07}" name="Precision" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{03A9CF28-EC90-4628-853F-6E3022CFF590}" name="Recall" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1C4D79D8-D3E8-4811-81BA-DB88A37B496C}" name="F1-Score" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{DF729693-A881-45FE-9142-1D7D00048F5E}" name="Accuracy" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{94A24E00-CF60-469E-88ED-A1F1C670346B}" name="Matrix" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{393928ED-8C02-4C44-9AAA-53C49CC23C50}" name="Emotion" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{17A14BD4-5D29-4918-90B8-DEBC306AEA07}" name="Precision" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{03A9CF28-EC90-4628-853F-6E3022CFF590}" name="Recall" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C4D79D8-D3E8-4811-81BA-DB88A37B496C}" name="F1-Score" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{DF729693-A881-45FE-9142-1D7D00048F5E}" name="Accuracy" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1772,642 +1772,642 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.9392156862745098</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.96865520728008092</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.64473684210526316</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.44144144144144137</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.52406417112299464</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.830078125</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.90715048025613665</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.91900826446280992</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.94024802705749722</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.92950682641404281</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.90661764705882353</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.95102198225993051</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.99918500407497968</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.98315958299919803</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.99110751818916742</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.99879663056558365</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.99939795304033707</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.97456765005086465</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.98712004121586805</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.64864864864864868</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.78688524590163933</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.98347107438016534</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.8134765625</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.89043292357028336</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.89221218961625282</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.89120631341600898</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.89170896785109988</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.8640504555010512</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.92706766917293226</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.99679230152365672</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.99839357429718867</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.99640287769784175</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.99819819819819822</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.65887207702888584</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.79436152570480933</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.6467065868263473</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.52734375</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.58095750403442703</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.96540469973890342</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>0.83370913190529872</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.89473684210526316</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.80877313228238523</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.95701540957015407</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>0.87667161961367002</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.8784029038112523</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.77626303127506013</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0.82418050234142193</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.83874849578820698</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.91230366492146597</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.91151284490960993</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.95370831259333</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.27692307692307688</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>0.1621621621621622</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.20454545454545461</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.8017578125</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.88997289972899729</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>0.91206313416009022</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>0.91206313416009022</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>0.91206313416009022</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.86163522012578619</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.92567567567567566</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.95509222133119487</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>0.97703035274815431</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.98343195266272188</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>0.99164677804295931</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.91762452107279691</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.95704295704295705</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.27472527472527469</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>0.2252252252252252</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>0.24752475247524749</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.7861328125</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>0.88026243849097863</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.91301876065946563</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>0.90529875986471253</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>0.90914237192187941</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.87956989247311823</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.99513381995133821</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.93378995433789946</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.99519999999999997</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0.99759422614274262</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>0.99639567480977165</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>0.99640287769784175</v>
       </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
         <v>0.99819819819819822</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.69002507662301482</v>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C009055-3D43-4BDC-9A14-30D0EBF651B5}">
   <dimension ref="A3:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2515,15 +2515,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -2546,186 +2546,186 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>0.9392156862745098</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <v>0.97456765005086465</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5">
         <v>0.65887207702888584</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <v>0.91151284490960993</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
         <v>0.91762452107279691</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5">
         <v>4.4017927793366667</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>0.64473684210526316</v>
       </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6">
         <v>0.27692307692307688</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6">
         <v>0.27472527472527469</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6">
         <v>2.1963851937536147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.98347107438016534</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7">
         <v>0.6467065868263473</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>4.6301776612065124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>0.91900826446280992</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8">
         <v>0.89221218961625282</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8">
         <v>0.96540469973890342</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <v>0.91206313416009022</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8">
         <v>0.91301876065946563</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8">
         <v>4.6017070486375218</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>0.90661764705882353</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <v>0.8640504555010512</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9">
         <v>0.80877313228238523</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <v>0.86163522012578619</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>0.87956989247311823</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9">
         <v>4.3206463474411647</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>0.99918500407497968</v>
       </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8784029038112523</v>
       </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.99519999999999997</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10">
         <v>4.8727879078862317</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.99640287769784175</v>
       </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>0.98343195266272188</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11">
         <v>0.99640287769784175</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11">
         <v>4.9762377080584059</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>6.408763443976385</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <v>6.7107042472461753</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>4.9581593996877746</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <v>5.9455662287812849</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12">
         <v>5.9765413266284977</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12">
         <v>29.999734646320118</v>
       </c>
     </row>
@@ -2751,722 +2751,722 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.9392156862745098</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.96865520728008092</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.64473684210526316</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.44144144144144137</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.52406417112299464</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.830078125</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.90715048025613665</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.91900826446280992</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.94024802705749722</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.92950682641404281</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.90661764705882353</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.95102198225993051</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.99918500407497968</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.98315958299919803</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.99110751818916742</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.99879663056558365</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.99939795304033707</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.1767901922541098</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.97456765005086465</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.98712004121586805</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.64864864864864868</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.78688524590163933</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.98347107438016534</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.8134765625</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0.89043292357028336</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.89221218961625282</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.89120631341600898</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.89170896785109988</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.8640504555010512</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.92706766917293226</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.99679230152365672</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>0.99839357429718867</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.99640287769784175</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.99819819819819822</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>0.1798551128448036</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.65887207702888584</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.79436152570480933</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.6467065868263473</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.52734375</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.58095750403442703</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.96540469973890342</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>0.83370913190529872</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>0.89473684210526316</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.80877313228238523</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>0.95701540957015407</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>0.87667161961367002</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.8784029038112523</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.77626303127506013</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0.82418050234142193</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.83874849578820698</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.91230366492146597</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>0.65937587071607695</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.91151284490960993</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>0.95370831259333</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.27692307692307688</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>0.1621621621621622</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.20454545454545461</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
         <v>0.8017578125</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.88997289972899729</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>0.91206313416009022</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>0.91206313416009022</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>0.91206313416009022</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.86163522012578619</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.92567567567567566</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.95509222133119487</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>0.97703035274815431</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.98343195266272188</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
         <v>0.99164677804295931</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>0.16982446363889661</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.91762452107279691</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.95704295704295705</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.27472527472527469</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>0.2252252252252252</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>0.24752475247524749</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>0.7861328125</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>0.88026243849097863</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>0.91301876065946563</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>0.90529875986471253</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>0.90914237192187941</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>0.87956989247311823</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>0.99513381995133821</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.93378995433789946</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>0.99519999999999997</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0.99759422614274262</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>0.99639567480977165</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>0.69002507662301482</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>0.99640287769784175</v>
       </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
         <v>0.99819819819819822</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>0.69002507662301482</v>
       </c>
     </row>
